--- a/data/ecology/49-questions-ecology.xlsx
+++ b/data/ecology/49-questions-ecology.xlsx
@@ -1532,7 +1532,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="21" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="90.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="55.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="22" width="37.57642857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="22" width="32.57642857142857" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="22" width="37.57642857142857" customWidth="1" bestFit="1"/>
